--- a/time series notes.xlsx
+++ b/time series notes.xlsx
@@ -8,25 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\time-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1928A62-C0B0-458D-84B1-0D176015B899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA8FBE-B194-4269-AE99-5272A63038FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="useful links" sheetId="2" r:id="rId2"/>
+    <sheet name="deep dive" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Autocorrelation</t>
   </si>
@@ -140,14 +153,220 @@
   </si>
   <si>
     <t>These two variables are calculated by fitting linear regressions with all involved variables and then taking the residuals. The residuals form each variable since this is the unexplained bit</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>https://www.visual-design.net/post/time-series-analysis-arma-arima-sarima</t>
+  </si>
+  <si>
+    <t>ARMA = Autoregressive (AR) + Moving Average (MA)</t>
+  </si>
+  <si>
+    <t>ARIMA = ARMA + Trend Differencing</t>
+  </si>
+  <si>
+    <t>SARIMA = ARIMA + Seasonal Differencing</t>
+  </si>
+  <si>
+    <t>Univariate models</t>
+  </si>
+  <si>
+    <t>These models seek to be able to predict the next value of the timeseries based on a linear combination of historical values and disturbances</t>
+  </si>
+  <si>
+    <t>Autoregressive Model</t>
+  </si>
+  <si>
+    <t>- Predictions made solely based on LC of previous data points</t>
+  </si>
+  <si>
+    <t>- How is p determined?</t>
+  </si>
+  <si>
+    <t>- Through PACF plot, the first PACF value to drop below a threshold is considered cutoff for p</t>
+  </si>
+  <si>
+    <t>- For eg if X_(t-3) is &lt; threshold, then only X_(t-1) and X_(t-2) is considered</t>
+  </si>
+  <si>
+    <t>https://stats.stackexchange.com/questions/26024/moving-average-model-error-terms</t>
+  </si>
+  <si>
+    <t>moving average model:</t>
+  </si>
+  <si>
+    <t>univariate models intro:</t>
+  </si>
+  <si>
+    <t>Moving Average Model</t>
+  </si>
+  <si>
+    <t>- 'e' are error terms or disturbances. These are calculated recursively from t = 1</t>
+  </si>
+  <si>
+    <t>- To find q, use autocorrelation plot to identify which lagged value has ACF dropping to 0 first. This is the cutoff</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Endogenous variables</t>
+  </si>
+  <si>
+    <t>Variable in statistical model that is determined by its relationship with other variables in the model</t>
+  </si>
+  <si>
+    <t>It is important to establish stationarity of a series because many techniques assume that underlying patterns are stable over time which will not be true if there is non-stationarity</t>
+  </si>
+  <si>
+    <t>https://www.machinelearningplus.com/time-series/augmented-dickey-fuller-test/</t>
+  </si>
+  <si>
+    <t>ADF test:</t>
+  </si>
+  <si>
+    <t>ADF Test</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Akaike/Bayesian Information Criterion (AIC/BIC)</t>
+  </si>
+  <si>
+    <t>AIC = 2k - 2ln(L)</t>
+  </si>
+  <si>
+    <t>k is the number of parameters and L is maximum likelihood of model</t>
+  </si>
+  <si>
+    <t>Lower the better</t>
+  </si>
+  <si>
+    <t>For sample sizes greater than 7, the penalty term in BIC is larger than in AIC</t>
+  </si>
+  <si>
+    <t>BIC = 2ln(k) - 2ln(L)</t>
+  </si>
+  <si>
+    <t>Box Jenkins Methodology</t>
+  </si>
+  <si>
+    <t>1. Identification</t>
+  </si>
+  <si>
+    <t>- Determining orders of AR, differencing, MA</t>
+  </si>
+  <si>
+    <t>- ACF, PACF plots</t>
+  </si>
+  <si>
+    <t>- Seasonality checks</t>
+  </si>
+  <si>
+    <t>- Stationarity checks</t>
+  </si>
+  <si>
+    <t>- Differencing order</t>
+  </si>
+  <si>
+    <t>2. Estimation</t>
+  </si>
+  <si>
+    <t>- Estimating p, d, q for ARIMA which has lowest AIC, BIC</t>
+  </si>
+  <si>
+    <t>- Estimating parameters phi and theta</t>
+  </si>
+  <si>
+    <t>3. Diagnostic Checking</t>
+  </si>
+  <si>
+    <t>- Residuals must be stationary</t>
+  </si>
+  <si>
+    <t>- Ljung Box test to check if patterns in residuals</t>
+  </si>
+  <si>
+    <t>- Resiudals have 0 mean and constant variance</t>
+  </si>
+  <si>
+    <t>4. Prediction</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>SARIMA, SARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMA = ARIMA + Seasonal Differencing at frequency decided by user</t>
+  </si>
+  <si>
+    <t>SARIMAX = SARIMA + exogenous variables - up till now, only the historical timeseries values were used in estimating the model, but if we have other information available to us as well, SARIMAX allows us to use that</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>(Generalized) Autoregressive Conditional Heteroskedasticity</t>
+  </si>
+  <si>
+    <t>While all (S)AR(IMA)(X) models take care of stationary timeseries, they do not account for changes in variance</t>
+  </si>
+  <si>
+    <t>While the variance effects can be reduced by applying data transformations, it is not always possible</t>
+  </si>
+  <si>
+    <t>If the variance or volatility changes with time, we can model it using ARCH</t>
+  </si>
+  <si>
+    <t>This is applicable for timeseries with heteroskedastic timeseries (where variance changes with time)</t>
+  </si>
+  <si>
+    <t>ARCH is only applicable if change in variance can be correlated over time</t>
+  </si>
+  <si>
+    <t>https://medium.com/aimonks/modeling-time-series-with-arch-models-advantages-limitations-and-validation-methods-c4e47ac2b48f</t>
+  </si>
+  <si>
+    <t>ARCH/GARCH:</t>
+  </si>
+  <si>
+    <t>- ARCH is used to model the conditional variability of a timeseries. It works with the assumption that the series is stationary, apart from the variance</t>
+  </si>
+  <si>
+    <t>- It is built using a series of lagged errors of a residual process i.e. obtain the errors from a model that tried to predict previous values, ensure that residuals have 0 mean, use these residuals in ARCH</t>
+  </si>
+  <si>
+    <t>- The logic being that future variance can be estimated by the amount of error there was present in estimating past values</t>
+  </si>
+  <si>
+    <t>- Extension of this is GARCH which also takes into account past variability in predicting future variability along with errors</t>
+  </si>
+  <si>
+    <t>- Consider a stock that has a few days of big changes in price after weeks of being dormant. You want to predict the price for the next day. ARCH/GARCH can give you a good estimate of how much variance you can expect in your prediction</t>
+  </si>
+  <si>
+    <t>- Conventionally defined as ARCH(p) and GARCH(p, q) where p is number of residuals and q is number of past variances</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,12 +394,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,6 +416,282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391C418F-AFB0-B27D-2A39-35AFAD1DD4CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552450" y="781050"/>
+          <a:ext cx="3835960" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194697</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0567EF4-8824-DC88-E42D-F64D6AF1C2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="2305050"/>
+          <a:ext cx="3966597" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219953</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE189CFA-6184-3F31-4825-81521E6C34E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="3448050"/>
+          <a:ext cx="5258678" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47461</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC8F168-0344-6537-2BC2-A88268EBBEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="5676900"/>
+          <a:ext cx="5048086" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56833</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07045E3-D527-3F17-CAFC-53C88B27B120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8453438" y="4988719"/>
+          <a:ext cx="2533333" cy="1057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,15 +957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,158 +991,493 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A8 A2:A3 A22" numberStoredAsText="1"/>
+    <ignoredError sqref="A9 A2:A3 A23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E987C20-EB7F-4F18-86E3-B8AB2AD1AE31}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4081F-96F7-421D-BF4F-215302032E5A}">
+  <dimension ref="B2:O32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>